--- a/out/BPI12/results/no_lap/nolap_64.xlsx
+++ b/out/BPI12/results/no_lap/nolap_64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1318C7D-DD45-B247-A9B4-12B80C9C6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D76DDD-C1AF-484B-9DB2-738C7C4B34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -849,12 +849,12 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUM(B2:Y2)</f>
+        <f t="shared" ref="AA2:AA25" si="0">SUM(B2:Y2)</f>
         <v>4319</v>
       </c>
       <c r="AB2" s="30">
-        <f>B2/AA2</f>
-        <v>1</v>
+        <f>1-B2/AA2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -934,12 +934,12 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUM(B3:Y3)</f>
+        <f t="shared" si="0"/>
         <v>4319</v>
       </c>
       <c r="AB3" s="30">
-        <f>C3/AA3</f>
-        <v>1</v>
+        <f>1-C3/AA3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUM(B4:Y4)</f>
+        <f t="shared" si="0"/>
         <v>2496</v>
       </c>
       <c r="AB4" s="24">
@@ -1104,7 +1104,7 @@
         <v>181</v>
       </c>
       <c r="AA5">
-        <f>SUM(B5:Y5)</f>
+        <f t="shared" si="0"/>
         <v>1727</v>
       </c>
       <c r="AB5" s="24">
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="AA6">
-        <f>SUM(B6:Y6)</f>
+        <f t="shared" si="0"/>
         <v>2378</v>
       </c>
       <c r="AB6" s="24">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <f>SUM(B7:Y7)</f>
+        <f t="shared" si="0"/>
         <v>1688</v>
       </c>
       <c r="AB7" s="24">
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="AA8">
-        <f>SUM(B8:Y8)</f>
+        <f t="shared" si="0"/>
         <v>2378</v>
       </c>
       <c r="AB8" s="24">
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="AA9">
-        <f>SUM(B9:Y9)</f>
+        <f t="shared" si="0"/>
         <v>2378</v>
       </c>
       <c r="AB9" s="24">
@@ -1529,7 +1529,7 @@
         <v>374</v>
       </c>
       <c r="AA10">
-        <f>SUM(B10:Y10)</f>
+        <f t="shared" si="0"/>
         <v>8227</v>
       </c>
       <c r="AB10" s="24">
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="AA11">
-        <f>SUM(B11:Y11)</f>
+        <f t="shared" si="0"/>
         <v>6751</v>
       </c>
       <c r="AB11" s="24">
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="AA12">
-        <f>SUM(B12:Y12)</f>
+        <f t="shared" si="0"/>
         <v>1140</v>
       </c>
       <c r="AB12" s="24">
@@ -1784,7 +1784,7 @@
         <v>17</v>
       </c>
       <c r="AA13">
-        <f>SUM(B13:Y13)</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="AB13" s="24">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="AA14">
-        <f>SUM(B14:Y14)</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="AB14" s="24">
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AA15">
-        <f>SUM(B15:Y15)</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="AB15" s="24">
@@ -2039,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="AA16">
-        <f>SUM(B16:Y16)</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="AB16" s="24">
@@ -2124,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="AA17">
-        <f>SUM(B17:Y17)</f>
+        <f t="shared" si="0"/>
         <v>2546</v>
       </c>
       <c r="AB17" s="24">
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="AA18">
-        <f>SUM(B18:Y18)</f>
+        <f t="shared" si="0"/>
         <v>1118</v>
       </c>
       <c r="AB18" s="24">
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="AA19">
-        <f>SUM(B19:Y19)</f>
+        <f t="shared" si="0"/>
         <v>2437</v>
       </c>
       <c r="AB19" s="24">
@@ -2379,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="AA20">
-        <f>SUM(B20:Y20)</f>
+        <f t="shared" si="0"/>
         <v>804</v>
       </c>
       <c r="AB20" s="24">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <f>SUM(B21:Y21)</f>
+        <f t="shared" si="0"/>
         <v>1916</v>
       </c>
       <c r="AB21" s="24">
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <f>SUM(B22:Y22)</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="AB22" s="24">
@@ -2634,7 +2634,7 @@
         <v>50</v>
       </c>
       <c r="AA23">
-        <f>SUM(B23:Y23)</f>
+        <f t="shared" si="0"/>
         <v>3439</v>
       </c>
       <c r="AB23" s="24">
@@ -2804,7 +2804,7 @@
         <v>1078</v>
       </c>
       <c r="AA25">
-        <f>SUM(B25:Y25)</f>
+        <f t="shared" si="0"/>
         <v>4319</v>
       </c>
       <c r="AB25" s="24">
@@ -2820,99 +2820,99 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <f>SUM(B2:B25)</f>
+        <f t="shared" ref="B27:Y27" si="1">SUM(B2:B25)</f>
         <v>4451</v>
       </c>
       <c r="C27">
-        <f>SUM(C2:C25)</f>
+        <f t="shared" si="1"/>
         <v>4336</v>
       </c>
       <c r="D27">
-        <f>SUM(D2:D25)</f>
+        <f t="shared" si="1"/>
         <v>4319</v>
       </c>
       <c r="E27">
-        <f>SUM(E2:E25)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="F27">
-        <f>SUM(F2:F25)</f>
+        <f t="shared" si="1"/>
         <v>1435</v>
       </c>
       <c r="G27">
-        <f>SUM(G2:G25)</f>
+        <f t="shared" si="1"/>
         <v>2528</v>
       </c>
       <c r="H27">
-        <f>SUM(H2:H25)</f>
+        <f t="shared" si="1"/>
         <v>3824</v>
       </c>
       <c r="I27">
-        <f>SUM(I2:I25)</f>
+        <f t="shared" si="1"/>
         <v>1328</v>
       </c>
       <c r="J27">
-        <f>SUM(J2:J25)</f>
+        <f t="shared" si="1"/>
         <v>7643</v>
       </c>
       <c r="K27">
-        <f>SUM(K2:K25)</f>
+        <f t="shared" si="1"/>
         <v>9509</v>
       </c>
       <c r="L27">
-        <f>SUM(L2:L25)</f>
+        <f t="shared" si="1"/>
         <v>1072</v>
       </c>
       <c r="M27">
-        <f>SUM(M2:M25)</f>
+        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="N27">
-        <f>SUM(N2:N25)</f>
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="O27">
-        <f>SUM(O2:O25)</f>
+        <f t="shared" si="1"/>
         <v>533</v>
       </c>
       <c r="P27">
-        <f>SUM(P2:P25)</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="Q27">
-        <f>SUM(Q2:Q25)</f>
+        <f t="shared" si="1"/>
         <v>739</v>
       </c>
       <c r="R27">
-        <f>SUM(R2:R25)</f>
+        <f t="shared" si="1"/>
         <v>1498</v>
       </c>
       <c r="S27">
-        <f>SUM(S2:S25)</f>
+        <f t="shared" si="1"/>
         <v>804</v>
       </c>
       <c r="T27">
-        <f>SUM(T2:T25)</f>
+        <f t="shared" si="1"/>
         <v>1234</v>
       </c>
       <c r="U27">
-        <f>SUM(U2:U25)</f>
+        <f t="shared" si="1"/>
         <v>6161</v>
       </c>
       <c r="V27">
-        <f>SUM(V2:V25)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="W27">
-        <f>SUM(W2:W25)</f>
+        <f t="shared" si="1"/>
         <v>2634</v>
       </c>
       <c r="X27">
-        <f>SUM(X2:X25)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="Y27">
-        <f>SUM(Y2:Y25)</f>
+        <f t="shared" si="1"/>
         <v>1901</v>
       </c>
       <c r="AA27">
@@ -3147,11 +3147,11 @@
         <v>0.69082905355832724</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:Y31" si="0">2*E29*E30/(E29+E30)</f>
+        <f t="shared" ref="E31:O31" si="2">2*E29*E30/(E29+E30)</f>
         <v>0.1013745704467354</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19774455809074218</v>
       </c>
       <c r="G31">
@@ -3163,71 +3163,71 @@
         <v>0.63527894227668491</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.59633027522935789</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62432262129804672</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63136531365313642</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5840867992766726E-2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3018867924528297E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3091482649842268E-2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0705496308449548E-2</v>
       </c>
       <c r="P31">
-        <f>2*P29*P30/(P29+P30)</f>
+        <f t="shared" ref="P31:Y31" si="3">2*P29*P30/(P29+P30)</f>
         <v>4.2154566744730677E-2</v>
       </c>
       <c r="Q31">
-        <f>2*Q29*Q30/(Q29+Q30)</f>
+        <f t="shared" si="3"/>
         <v>0.23135464231354641</v>
       </c>
       <c r="R31">
-        <f>2*R29*R30/(R29+R30)</f>
+        <f t="shared" si="3"/>
         <v>0.1743119266055046</v>
       </c>
       <c r="S31">
-        <f>2*S29*S30/(S29+S30)</f>
+        <f t="shared" si="3"/>
         <v>2.4066646096883679E-2</v>
       </c>
       <c r="T31">
-        <f>2*T29*T30/(T29+T30)</f>
+        <f t="shared" si="3"/>
         <v>0.19528949950932287</v>
       </c>
       <c r="U31">
-        <f>2*U29*U30/(U29+U30)</f>
+        <f t="shared" si="3"/>
         <v>0.40609137055837563</v>
       </c>
       <c r="V31">
-        <f>2*V29*V30/(V29+V30)</f>
+        <f t="shared" si="3"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="W31">
-        <f>2*W29*W30/(W29+W30)</f>
+        <f t="shared" si="3"/>
         <v>0.36094187386794008</v>
       </c>
       <c r="X31">
-        <f>2*X29*X30/(X29+X30)</f>
+        <f t="shared" si="3"/>
         <v>0.11023622047244096</v>
       </c>
       <c r="Y31">
-        <f>2*Y29*Y30/(Y29+Y30)</f>
+        <f t="shared" si="3"/>
         <v>0.34662379421221867</v>
       </c>
       <c r="AA31">
@@ -3239,7 +3239,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="30">
         <f>(B31*AA2+C31*AA3+D31*AA4+E31*AA5+F31*AA6+G31*AA7+H31*AA8+I31*AA9+J31*AA10+K31*AA11+L31*AA12+M31*AA13+N31*AA14+O31*AA15+P31*AA16+Q31*AA17+R31*AA18+S31*AA19+T31*AA20+U31*AA21+V31*AA22+W31*AA23+X31*AA24+Y31*AA25)/AA27</f>
         <v>0.49991043340403768</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="30">
         <f>(B2+C3+D4+E5+F6+G7+H8+I9+J10+K11+L12+M13+N14+O15+P16+Q17+R18+S19+T20+U21+V22+W23+X24+Y25)/AA27</f>
         <v>0.52853960740637618</v>
       </c>

--- a/out/BPI12/results/no_lap/nolap_64.xlsx
+++ b/out/BPI12/results/no_lap/nolap_64.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D76DDD-C1AF-484B-9DB2-738C7C4B34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADC426-70CB-0347-A4D3-0DA39956465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <f>B2/AA2</f>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <f>B2/B27</f>

--- a/out/BPI12/results/no_lap/nolap_64.xlsx
+++ b/out/BPI12/results/no_lap/nolap_64.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADC426-70CB-0347-A4D3-0DA39956465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2ED14-B6F9-4DF3-AD96-1866370B37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>APREACCEPTED</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>APARTLYSUBMITTED</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -676,23 +679,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.83203125" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
         <v>29</v>
       </c>
@@ -768,11 +772,14 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
@@ -852,12 +859,15 @@
         <f t="shared" ref="AA2:AA25" si="0">SUM(B2:Y2)</f>
         <v>4319</v>
       </c>
-      <c r="AB2" s="30">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="30">
         <f>1-B2/AA2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
@@ -937,12 +947,15 @@
         <f t="shared" si="0"/>
         <v>4319</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="30">
         <f>1-C3/AA3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,12 +1035,15 @@
         <f t="shared" si="0"/>
         <v>2496</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="24">
         <f>1-D4/AA4</f>
         <v>5.6891025641025661E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1107,12 +1123,15 @@
         <f t="shared" si="0"/>
         <v>1727</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
         <f>1-E5/AA5</f>
         <v>0.93167342211928195</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1192,12 +1211,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
         <f>1-F6/AA6</f>
         <v>0.84146341463414631</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1277,12 +1299,15 @@
         <f t="shared" si="0"/>
         <v>1688</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
         <f>1-G7/AA7</f>
         <v>0.51540284360189581</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1362,12 +1387,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
         <f>1-H8/AA8</f>
         <v>0.17157275021026075</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1447,12 +1475,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
         <f>1-I9/AA9</f>
         <v>0.53532380151387726</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1532,12 +1563,15 @@
         <f t="shared" si="0"/>
         <v>8227</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
         <f>1-J10/AA10</f>
         <v>0.39783639236659774</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1617,12 +1651,15 @@
         <f t="shared" si="0"/>
         <v>6751</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
         <f>1-K11/AA11</f>
         <v>0.23966819730410305</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1702,12 +1739,15 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
         <f>1-L12/AA12</f>
         <v>0.90701754385964917</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1787,12 +1827,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
         <f>1-M13/AA13</f>
         <v>0.93586005830903796</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1872,12 +1915,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="24">
         <f>1-N14/AA14</f>
         <v>0.95626822157434399</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -1957,12 +2003,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
         <f>1-O15/AA15</f>
         <v>0.94606413994169092</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2042,12 +2091,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
         <f>1-P16/AA16</f>
         <v>0.97376093294460642</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2127,12 +2179,15 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
         <f>1-Q17/AA17</f>
         <v>0.85074626865671643</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
@@ -2212,12 +2267,15 @@
         <f t="shared" si="0"/>
         <v>1118</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="24">
         <f>1-R18/AA18</f>
         <v>0.7960644007155635</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2297,12 +2355,15 @@
         <f t="shared" si="0"/>
         <v>2437</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
         <f>1-S19/AA19</f>
         <v>0.98399671727533855</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -2382,12 +2443,15 @@
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="AB20" s="24">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="24">
         <f>1-T20/AA20</f>
         <v>0.75248756218905477</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2467,12 +2531,15 @@
         <f t="shared" si="0"/>
         <v>1916</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="24">
         <f>1-U21/AA21</f>
         <v>0.14405010438413357</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
@@ -2552,12 +2619,15 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="24">
         <f>1-V22/AA22</f>
         <v>0.98818897637795278</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
@@ -2637,12 +2707,15 @@
         <f t="shared" si="0"/>
         <v>3439</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="24">
         <f>1-W23/AA23</f>
         <v>0.68130270427449835</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>20</v>
       </c>
@@ -2722,12 +2795,15 @@
         <f>SUM(B24:Y24)</f>
         <v>86</v>
       </c>
-      <c r="AB24" s="24">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="24">
         <f>1-X24/AA24</f>
         <v>0.91860465116279066</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
@@ -2807,15 +2883,18 @@
         <f t="shared" si="0"/>
         <v>4319</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="24">
         <f>1-Y25/AA25</f>
         <v>0.7504051863857375</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2919,8 +2998,12 @@
         <f>SUM(AA2:AA25)</f>
         <v>57464</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB27">
+        <f>SUM(AB2:AB25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3025,7 +3108,7 @@
         <v>0.52853960740637618</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3130,7 +3213,7 @@
         <v>0.52345306095321054</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3318,7 @@
         <v>0.52598403706233321</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3327,7 @@
         <v>0.49991043340403768</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3253,76 +3336,76 @@
         <v>0.52853960740637618</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB40" s="23"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB41" s="23"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB42" s="23"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB43" s="23"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB44" s="23"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB45" s="23"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB46" s="23"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB47" s="23"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AB48" s="23"/>
     </row>
-    <row r="49" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB49" s="23"/>
     </row>
-    <row r="50" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB50" s="23"/>
     </row>
-    <row r="51" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB51" s="23"/>
     </row>
-    <row r="52" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB52" s="23"/>
     </row>
-    <row r="53" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB53" s="23"/>
     </row>
-    <row r="54" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB54" s="23"/>
     </row>
-    <row r="55" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB55" s="23"/>
     </row>
-    <row r="56" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB56" s="23"/>
     </row>
-    <row r="57" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB57" s="23"/>
     </row>
-    <row r="58" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB58" s="23"/>
     </row>
-    <row r="59" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB59" s="23"/>
     </row>
-    <row r="60" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB60" s="23"/>
     </row>
-    <row r="61" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB61" s="23"/>
     </row>
-    <row r="62" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB62" s="23"/>
     </row>
-    <row r="63" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB63" s="23"/>
     </row>
   </sheetData>
